--- a/database/seeders/02_SeederRelationship.xlsx
+++ b/database/seeders/02_SeederRelationship.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\private\anime_library-main\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6FDF07-D70E-4454-B04C-B65B4EF72E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D0003D-EAA2-46C8-A83A-454F16CD74DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28390" yWindow="-20840" windowWidth="18480" windowHeight="18820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="series_platform_availabilities" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -162,7 +162,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -468,15 +469,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.90625" customWidth="1"/>
@@ -504,7 +505,412 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -516,17 +922,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -553,7 +959,412 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/seeders/02_SeederRelationship.xlsx
+++ b/database/seeders/02_SeederRelationship.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\private\anime_library-main\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D0003D-EAA2-46C8-A83A-454F16CD74DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9570BB5E-67EF-46C8-BBF0-D099D9BD5022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28390" yWindow="-20840" windowWidth="18480" windowHeight="18820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="series_platform_availabilities" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>series_platform_availabilities</t>
     <phoneticPr fontId="3"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>note</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>member_series_statuses</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -67,10 +63,6 @@
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>completed_at</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -469,10 +461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -480,15 +472,14 @@
     <col min="1" max="1" width="5.6328125" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -501,11 +492,8 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -518,9 +506,8 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -533,9 +520,8 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -548,9 +534,8 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -563,9 +548,8 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -578,9 +562,8 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -593,9 +576,8 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -608,9 +590,8 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -623,9 +604,8 @@
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -638,9 +618,8 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -653,9 +632,8 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -668,9 +646,8 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -683,9 +660,8 @@
       <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -698,9 +674,8 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -713,9 +688,8 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -728,9 +702,8 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -743,9 +716,8 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -758,9 +730,8 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -773,9 +744,8 @@
       <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -788,9 +758,8 @@
       <c r="D21" s="6">
         <v>3</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -803,9 +772,8 @@
       <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -818,9 +786,8 @@
       <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -833,9 +800,8 @@
       <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -848,9 +814,8 @@
       <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -863,9 +828,8 @@
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -878,9 +842,8 @@
       <c r="D27" s="6">
         <v>3</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -893,9 +856,8 @@
       <c r="D28" s="6">
         <v>1</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -908,9 +870,8 @@
       <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,10 +883,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -934,32 +895,28 @@
     <col min="2" max="2" width="15.7265625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -972,9 +929,8 @@
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -987,9 +943,8 @@
       <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1002,9 +957,8 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1017,9 +971,8 @@
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1032,9 +985,8 @@
       <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1047,9 +999,8 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1062,9 +1013,8 @@
       <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1077,9 +1027,8 @@
       <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1092,9 +1041,8 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1107,9 +1055,8 @@
       <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1122,9 +1069,8 @@
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1137,9 +1083,8 @@
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1152,9 +1097,8 @@
       <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1167,9 +1111,8 @@
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1182,9 +1125,8 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1197,9 +1139,8 @@
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1212,9 +1153,8 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1227,9 +1167,8 @@
       <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1242,9 +1181,8 @@
       <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -1257,9 +1195,8 @@
       <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1272,9 +1209,8 @@
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -1287,9 +1223,8 @@
       <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -1302,9 +1237,8 @@
       <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -1317,9 +1251,8 @@
       <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -1332,9 +1265,8 @@
       <c r="D27" s="6">
         <v>2</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -1347,9 +1279,8 @@
       <c r="D28" s="6">
         <v>2</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -1362,9 +1293,8 @@
       <c r="D29" s="6">
         <v>2</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
